--- a/po-prelimThresh.xlsx
+++ b/po-prelimThresh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>condN</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>priorSD</t>
+  </si>
+  <si>
+    <t>stimRamp</t>
+  </si>
+  <si>
+    <t>rampLin</t>
   </si>
 </sst>
 </file>
@@ -551,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -562,7 +568,7 @@
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,25 +597,31 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
@@ -623,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F2">
         <v>1000</v>
@@ -638,25 +650,31 @@
         <v>12</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>250</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>16</v>
-      </c>
       <c r="N2">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>0.1</v>
+      </c>
+      <c r="Q2">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="A3">
         <v>2</v>
       </c>
@@ -670,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -685,25 +703,31 @@
         <v>12</v>
       </c>
       <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>250</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>16</v>
-      </c>
       <c r="N3">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>0.1</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
@@ -717,7 +741,7 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -732,25 +756,31 @@
         <v>12</v>
       </c>
       <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>250</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>16</v>
-      </c>
-      <c r="N4">
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>4</v>
       </c>
@@ -764,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -779,21 +809,27 @@
         <v>12</v>
       </c>
       <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>250</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>16</v>
-      </c>
-      <c r="N5">
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.2</v>
       </c>
     </row>

--- a/po-prelimThresh.xlsx
+++ b/po-prelimThresh.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>condN</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>rampLin</t>
+  </si>
+  <si>
+    <t>maskRamp</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -568,7 +571,7 @@
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -612,16 +615,19 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
@@ -638,7 +644,7 @@
         <v>250</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G2">
         <v>0.5</v>
@@ -665,16 +671,19 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P2">
+        <v>12</v>
+      </c>
+      <c r="Q2">
         <v>0.1</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
@@ -691,7 +700,7 @@
         <v>250</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G3">
         <v>0.5</v>
@@ -718,16 +727,19 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
         <v>0.1</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
@@ -744,7 +756,7 @@
         <v>250</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G4">
         <v>0.5</v>
@@ -771,16 +783,19 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P4">
+        <v>12</v>
+      </c>
+      <c r="Q4">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
@@ -797,7 +812,7 @@
         <v>250</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G5">
         <v>0.5</v>
@@ -824,12 +839,15 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P5">
+        <v>12</v>
+      </c>
+      <c r="Q5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.2</v>
       </c>
     </row>
